--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-88815.75248871607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35039594.86796366</v>
+        <v>34116371.43442551</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105524.49589032</v>
+        <v>15236585.47227999</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1822446.964988908</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>317.9541921376115</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="25">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>20.50438992611925</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>79.91349180188286</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>162.8225906357931</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>324.6350067272861</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="31">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>131.5105685335157</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>121.1569563125156</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>83.8197683092549</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>42.34985483633109</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>371.5724976088935</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>43.7062781147687</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>371.5724976088932</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.8197683092549</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>65.74288515995956</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>204.8650862719454</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>34.44698820166543</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="43">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>98.5031012475566</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.347123973539023</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>88.59814205905803</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>777.0304303403609</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.620701192558</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>354.620701192558</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>354.620701192558</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>801.8833353847203</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1199.440159488164</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>766.8267910921747</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>766.8267910921747</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>600.9487982936975</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>318.1822665779013</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>732.1860421156629</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>822.5499107089167</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>958.6454098111619</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>958.6454098111619</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>958.6454098111619</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>958.6454098111619</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>536.5852784860896</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>536.5852784860896</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>114.1755493382867</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.79828774524245</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>955.7277419067789</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>536.5852784860896</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>536.5852784860896</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>531.967223835246</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>425.5107626718883</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>330.4204738184416</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>236.3000591453953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>152.9162207615569</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>779.7569041357884</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>653.2711249150092</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>443.3138684835714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>197.9221138169839</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>83.79828774524239</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>57.70569792707142</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>124.2518767018075</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>281.155176641459</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>434.089979122463</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>612.5576801491795</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>795.748890174855</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>963.3330580404649</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>678.6368592491522</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>678.6368592491522</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>512.7588664506749</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>343.0008627014121</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>166.2938086631683</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>870.4554779681393</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>870.4554779681393</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>870.4554779681393</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1283.129763433079</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1283.129763433079</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>878.2743088441117</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>152.9162207615565</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>605.2485493631989</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>758.183351844203</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>936.6510528709194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1237.918287100305</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1237.918287100305</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1237.918287100305</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>992.5265324337174</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>765.1068617478256</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>831.1903348568075</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>455.864579696309</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>455.864579696309</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1253.60006400461</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1253.60006400461</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>531.9672238352462</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>425.5107626718884</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>330.4204738184417</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>236.3000591453954</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1119.947094163715</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>934.6243398969086</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>779.7569041357885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>653.2711249150093</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>382.7236161035248</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>861.7096435212254</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>952.0735121144792</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1151.037253290153</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>864.0817451605831</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>864.0817451605831</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>618.6899904939955</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>574.542234822512</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>831.1903348568071</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>831.1903348568071</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>831.1903348568071</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>831.1903348568071</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>408.7806057090042</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1253.60006400461</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1253.60006400461</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>152.9162207615565</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>605.2485493631989</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>758.183351844203</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>936.6510528709194</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>382.7236161035248</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>769.1447895942084</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1606.335572718269</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1319.3800645887</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1047.353660174991</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>801.9619055084038</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>574.542234822512</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>731.2390367702202</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>83.79828774524229</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1153.648765918023</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>531.9672238352462</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>425.5107626718884</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>330.4204738184417</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>236.3000591453954</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>152.916220761557</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>68.24978812594583</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>260.6979650056804</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>374.4359838511127</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>527.3707863321168</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>705.8384873588335</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1119.947094163715</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>934.6243398969086</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>779.7569041357885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>653.2711249150093</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>682.2578127397973</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>769.1447895942088</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>861.7096435212254</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>952.0735121144792</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>973.5745135270233</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>874.0764314587843</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>874.0764314587843</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1663.300988058088</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1663.300988058088</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1300.684037991914</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>605.2485493631989</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>758.183351844203</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>936.6510528709194</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1583.249454638372</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1583.249454638372</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1304.849317417107</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1017.893809287537</v>
       </c>
     </row>
   </sheetData>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9802,19 +9804,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.8319206116795</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>346.0449349349548</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>177.9839075203758</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10048,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>43.60129403456486</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>194.5224767935399</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10519,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>177.9839075203752</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>177.9839075203755</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10759,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>177.9839075203752</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10996,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>111.4973890337529</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>233.1440055677639</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>177.9839075203755</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11233,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>177.9839075203751</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>346.0449349349548</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24206,10 +24208,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24218,13 +24220,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>78.09992671243953</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>147.5560337856509</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -24446,22 +24448,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>349.5235055914049</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,13 +24615,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>62.32288334323971</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24692,13 +24694,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24746,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>79.56825573605698</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>31.8283207007352</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24917,10 +24919,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208613</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24929,13 +24931,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>135.3667446066042</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -25081,19 +25083,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>233.2662810127212</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -25138,10 +25140,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733783</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>62.18855047951746</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25217,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25321,16 +25323,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>181.4391958642641</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733896</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25400,16 +25402,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>24.48162124115778</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25454,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -25558,16 +25560,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>209.8732506890927</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559419</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>195.9418137711316</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -25795,16 +25797,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>144.4347358723651</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25868,22 +25870,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696296</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>202.6985193651053</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,25 +26025,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>58.6559154816118</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>342501.7355967715</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>342501.7355967715</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>342501.7355967715</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>342501.7355967715</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>342501.7355967718</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>342501.7355967715</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>342501.7355967716</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>342501.7355967715</v>
       </c>
     </row>
   </sheetData>
@@ -26332,28 +26334,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>97378.78047220715</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>97378.78047220713</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>97378.7804722071</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>97378.7804722071</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>97378.78047220715</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>97378.78047220713</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>97378.78047220716</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>97378.78047220713</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>360192.1710449697</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26436,28 +26438,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14210.98180735127</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14210.98180735127</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14210.98180735127</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14210.98180735127</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14210.98180735126</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
     </row>
     <row r="6">
@@ -26540,28 +26542,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-309660.875000078</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>50531.29604489166</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>50531.29604489163</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>50531.29604489164</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>50531.29604489166</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>50531.29604489167</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>50531.29604489168</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>50531.29604489167</v>
       </c>
     </row>
   </sheetData>
@@ -26756,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>330.7713854632872</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
     </row>
   </sheetData>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>215.1406665327154</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>158.4881817572237</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>131.6915904391126</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>262.2926534414111</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>131.6915904391126</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>266.6631737149096</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>178.7157514324762</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>266.6631737149099</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>131.6915904391126</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>271.4837599719073</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88815.75248871607</v>
+        <v>-98893.63829955252</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34116371.43442551</v>
+        <v>34114644.17356062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15236585.47227999</v>
+        <v>15226912.63614505</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1822446.964988908</v>
+        <v>1826824.686964166</v>
       </c>
     </row>
     <row r="11">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
     </row>
     <row r="22">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="D23" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>317.9541921376115</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.0456433386444</v>
+        <v>121.0832981119951</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>174.5263742585036</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586209</v>
       </c>
       <c r="W24" t="n">
         <v>183.4695267241379</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.50438992611925</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>69.83578017384922</v>
@@ -2529,22 +2529,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>62.70300935057866</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2560,11 +2560,11 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="E26" t="n">
-        <v>79.91349180188286</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
         <v>256.5237009191198</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>321.1887852074539</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>64.51555239749329</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6161358490523</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.8225906357931</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>317.9541921376114</v>
       </c>
       <c r="C29" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.0456433386444</v>
@@ -2851,7 +2851,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>324.6350067272861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44698820166521</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T30" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304332</v>
       </c>
       <c r="U30" t="n">
         <v>174.5263742585036</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>67.11378449846647</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>131.5105685335157</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>399.2805564346986</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>121.1569563125156</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.8197683092549</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H33" t="n">
         <v>34.44698820166514</v>
@@ -3164,7 +3164,7 @@
         <v>126.0091317304331</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5263742585041</v>
       </c>
       <c r="V33" t="n">
         <v>197.1263427586206</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>42.34985483633109</v>
+        <v>181.2704305642714</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>418.1856318563249</v>
       </c>
       <c r="C35" t="n">
-        <v>371.5724976088935</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>418.1856318563249</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>282.818887249721</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>197.3913559565852</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.7062781147687</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>371.5724976088932</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>193.1405679170178</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.8197683092549</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H39" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>190.3986770698943</v>
       </c>
       <c r="U40" t="n">
-        <v>65.74288515995956</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>418.1856318563249</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>418.1856318563249</v>
+        <v>254.9973573107414</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>204.8650862719454</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>69.03281278594196</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>98.5031012475566</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>418.1856318563248</v>
+        <v>392.2356815915492</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
-        <v>9.347123973539023</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5263742585034</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>147.1244401935909</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4155,7 +4155,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>88.59814205905803</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.072177809113711</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.607798771138296</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.523260307689948</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3.754211318554211</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5.190673088024536</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.665153726207343</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>8.014015446969966</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>6.394627437018734</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7.101256878375861</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>7.84629854752842</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>8.57362479103854</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>9.245428298083949</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.02654830884308</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4.942009845394732</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>6.172960856258994</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>7.609422625729319</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>9.083903263912127</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>10.43276498467475</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11.51534543333667</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12.23902179370821</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.855867513507673</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.085790946545346</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>8.315714379583019</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>11.54563781262069</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1199.440159488164</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="C23" t="n">
-        <v>777.0304303403609</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="D23" t="n">
-        <v>354.620701192558</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="E23" t="n">
-        <v>354.620701192558</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="F23" t="n">
-        <v>354.620701192558</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099025</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968688</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847203</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6019,22 +6019,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T23" t="n">
-        <v>1458.555008901416</v>
+        <v>1550.436165696011</v>
       </c>
       <c r="U23" t="n">
-        <v>1199.440159488164</v>
+        <v>1550.436165696011</v>
       </c>
       <c r="V23" t="n">
-        <v>1199.440159488164</v>
+        <v>1550.436165696011</v>
       </c>
       <c r="W23" t="n">
-        <v>1199.440159488164</v>
+        <v>1550.436165696011</v>
       </c>
       <c r="X23" t="n">
-        <v>1199.440159488164</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="Y23" t="n">
-        <v>1199.440159488164</v>
+        <v>1131.293702275322</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C24" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D24" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E24" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F24" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G24" t="n">
-        <v>68.24978812594554</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H24" t="n">
         <v>33.45485054850599</v>
@@ -6098,7 +6098,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T24" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U24" t="n">
         <v>1319.064612101715</v>
@@ -6107,13 +6107,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W24" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X24" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>766.8267910921747</v>
+        <v>280.703096681547</v>
       </c>
       <c r="C25" t="n">
-        <v>766.8267910921747</v>
+        <v>280.703096681547</v>
       </c>
       <c r="D25" t="n">
-        <v>600.9487982936975</v>
+        <v>280.703096681547</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2372933178194</v>
+        <v>280.703096681547</v>
       </c>
       <c r="F25" t="n">
-        <v>403.5302392795757</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G25" t="n">
-        <v>238.5414622752818</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H25" t="n">
         <v>103.9960426433032</v>
@@ -6147,22 +6147,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J25" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3897930453123</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L25" t="n">
-        <v>318.1822665779013</v>
+        <v>557.8138834183841</v>
       </c>
       <c r="M25" t="n">
-        <v>732.1860421156629</v>
+        <v>873.7560120308949</v>
       </c>
       <c r="N25" t="n">
-        <v>822.5499107089167</v>
+        <v>964.1198806241488</v>
       </c>
       <c r="O25" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P25" t="n">
         <v>1449.542946114066</v>
@@ -6177,22 +6177,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U25" t="n">
-        <v>1245.600917940732</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V25" t="n">
-        <v>958.6454098111619</v>
+        <v>1217.359545166722</v>
       </c>
       <c r="W25" t="n">
-        <v>958.6454098111619</v>
+        <v>945.3331407530134</v>
       </c>
       <c r="X25" t="n">
-        <v>958.6454098111619</v>
+        <v>699.9413860864258</v>
       </c>
       <c r="Y25" t="n">
-        <v>958.6454098111619</v>
+        <v>472.5217154005341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>536.5852784860896</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C26" t="n">
-        <v>536.5852784860896</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D26" t="n">
-        <v>114.1755493382867</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E26" t="n">
         <v>33.45485054850599</v>
@@ -6223,19 +6223,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524245</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J26" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L26" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847203</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6247,31 +6247,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R26" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T26" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U26" t="n">
-        <v>1360.583196495746</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V26" t="n">
-        <v>1360.583196495746</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W26" t="n">
-        <v>955.7277419067789</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X26" t="n">
-        <v>536.5852784860896</v>
+        <v>780.2976960674745</v>
       </c>
       <c r="Y26" t="n">
-        <v>536.5852784860896</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>531.967223835246</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C27" t="n">
-        <v>425.5107626718883</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4204738184416</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E27" t="n">
-        <v>236.3000591453953</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F27" t="n">
-        <v>152.9162207615569</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G27" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H27" t="n">
         <v>33.45485054850599</v>
@@ -6335,7 +6335,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T27" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U27" t="n">
         <v>1319.064612101715</v>
@@ -6344,13 +6344,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W27" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X27" t="n">
-        <v>779.7569041357884</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y27" t="n">
-        <v>653.2711249150092</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.45485054850599</v>
+        <v>634.5754567219856</v>
       </c>
       <c r="C28" t="n">
-        <v>33.45485054850599</v>
+        <v>569.4082320780529</v>
       </c>
       <c r="D28" t="n">
-        <v>33.45485054850599</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="E28" t="n">
-        <v>33.45485054850599</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="F28" t="n">
-        <v>33.45485054850599</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G28" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H28" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I28" t="n">
         <v>33.45485054850599</v>
@@ -6390,10 +6390,10 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L28" t="n">
-        <v>769.144789594209</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M28" t="n">
-        <v>861.7096435212256</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N28" t="n">
         <v>952.0735121144794</v>
@@ -6411,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T28" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U28" t="n">
-        <v>1002.295781026849</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V28" t="n">
-        <v>715.3402728972799</v>
+        <v>1107.386882074465</v>
       </c>
       <c r="W28" t="n">
-        <v>443.3138684835714</v>
+        <v>1107.386882074465</v>
       </c>
       <c r="X28" t="n">
-        <v>197.9221138169839</v>
+        <v>861.9951274078774</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.45485054850599</v>
+        <v>634.5754567219856</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>878.2743088441118</v>
+      </c>
+      <c r="C29" t="n">
         <v>455.8645796963089</v>
-      </c>
-      <c r="C29" t="n">
-        <v>33.45485054850599</v>
       </c>
       <c r="D29" t="n">
         <v>33.45485054850599</v>
@@ -6460,16 +6460,16 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524239</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M29" t="n">
         <v>801.8833353847205</v>
@@ -6484,31 +6484,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q29" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R29" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T29" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U29" t="n">
-        <v>1146.395677971862</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V29" t="n">
-        <v>783.7787279056888</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W29" t="n">
-        <v>783.7787279056888</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X29" t="n">
-        <v>783.7787279056888</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="Y29" t="n">
-        <v>455.8645796963089</v>
+        <v>1199.440159488164</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C30" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E30" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F30" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G30" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I30" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J30" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K30" t="n">
-        <v>281.155176641459</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L30" t="n">
-        <v>434.089979122463</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M30" t="n">
-        <v>612.5576801491795</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N30" t="n">
-        <v>795.748890174855</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O30" t="n">
-        <v>963.3330580404649</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.834127233838</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6572,7 +6572,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T30" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U30" t="n">
         <v>1319.064612101715</v>
@@ -6581,13 +6581,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W30" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X30" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>678.6368592491522</v>
+        <v>337.665736955383</v>
       </c>
       <c r="C31" t="n">
-        <v>678.6368592491522</v>
+        <v>269.8740354417805</v>
       </c>
       <c r="D31" t="n">
-        <v>512.7588664506749</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0008627014121</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="F31" t="n">
-        <v>166.2938086631683</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I31" t="n">
         <v>33.45485054850599</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.437390511417</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V31" t="n">
-        <v>1142.481882381848</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="W31" t="n">
-        <v>870.4554779681393</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="X31" t="n">
-        <v>870.4554779681393</v>
+        <v>756.9040263602619</v>
       </c>
       <c r="Y31" t="n">
-        <v>870.4554779681393</v>
+        <v>529.4843556743701</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>878.2743088441117</v>
+        <v>836.8232094219904</v>
       </c>
       <c r="C32" t="n">
-        <v>455.8645796963089</v>
+        <v>836.8232094219904</v>
       </c>
       <c r="D32" t="n">
-        <v>33.45485054850598</v>
+        <v>836.8232094219904</v>
       </c>
       <c r="E32" t="n">
-        <v>33.45485054850598</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F32" t="n">
-        <v>33.45485054850598</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524223</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M32" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6718,34 +6718,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P32" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q32" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R32" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S32" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T32" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U32" t="n">
-        <v>1283.129763433079</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V32" t="n">
-        <v>1283.129763433079</v>
+        <v>836.8232094219904</v>
       </c>
       <c r="W32" t="n">
-        <v>878.2743088441117</v>
+        <v>836.8232094219904</v>
       </c>
       <c r="X32" t="n">
-        <v>878.2743088441117</v>
+        <v>836.8232094219904</v>
       </c>
       <c r="Y32" t="n">
-        <v>878.2743088441117</v>
+        <v>836.8232094219904</v>
       </c>
     </row>
     <row r="33">
@@ -6755,61 +6755,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C33" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E33" t="n">
-        <v>236.3000591453949</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F33" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G33" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I33" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J33" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K33" t="n">
-        <v>605.2485493631989</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L33" t="n">
-        <v>758.183351844203</v>
+        <v>416.9883711887015</v>
       </c>
       <c r="M33" t="n">
-        <v>936.6510528709194</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N33" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O33" t="n">
-        <v>1287.426430762205</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P33" t="n">
-        <v>1421.927499955578</v>
+        <v>1360.235225644465</v>
       </c>
       <c r="Q33" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R33" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S33" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T33" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U33" t="n">
         <v>1319.064612101715</v>
@@ -6821,10 +6821,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y33" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>573.2882430288385</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="C34" t="n">
-        <v>573.2882430288385</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="D34" t="n">
-        <v>573.2882430288385</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="E34" t="n">
-        <v>403.5302392795757</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F34" t="n">
-        <v>403.5302392795757</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G34" t="n">
-        <v>238.5414622752818</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H34" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J34" t="n">
         <v>161.7834697148434</v>
@@ -6879,31 +6879,31 @@
         <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.001055161996</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T34" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U34" t="n">
-        <v>1237.918287100305</v>
+        <v>1340.899610147581</v>
       </c>
       <c r="V34" t="n">
-        <v>1237.918287100305</v>
+        <v>1053.944102018012</v>
       </c>
       <c r="W34" t="n">
-        <v>1237.918287100305</v>
+        <v>781.917697604303</v>
       </c>
       <c r="X34" t="n">
-        <v>992.5265324337174</v>
+        <v>536.5259429377155</v>
       </c>
       <c r="Y34" t="n">
-        <v>765.1068617478256</v>
+        <v>536.5259429377155</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>831.1903348568075</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C35" t="n">
-        <v>455.864579696309</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D35" t="n">
-        <v>455.864579696309</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E35" t="n">
         <v>33.45485054850599</v>
@@ -6934,19 +6934,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524223</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6955,7 +6955,7 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P35" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q35" t="n">
         <v>1590.048899840628</v>
@@ -6964,25 +6964,25 @@
         <v>1672.7425274253</v>
       </c>
       <c r="S35" t="n">
-        <v>1672.7425274253</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.7425274253</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U35" t="n">
-        <v>1672.7425274253</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="V35" t="n">
-        <v>1672.7425274253</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="W35" t="n">
-        <v>1672.7425274253</v>
+        <v>741.5402233828959</v>
       </c>
       <c r="X35" t="n">
-        <v>1253.60006400461</v>
+        <v>455.864579696309</v>
       </c>
       <c r="Y35" t="n">
-        <v>1253.60006400461</v>
+        <v>455.864579696309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.9672238352462</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C36" t="n">
-        <v>425.5107626718884</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D36" t="n">
-        <v>330.4204738184417</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E36" t="n">
-        <v>236.3000591453954</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F36" t="n">
         <v>152.9162207615567</v>
@@ -7019,49 +7019,49 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L36" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M36" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N36" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O36" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
       </c>
       <c r="R36" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S36" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T36" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U36" t="n">
         <v>1319.064612101715</v>
       </c>
       <c r="V36" t="n">
-        <v>1119.947094163715</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W36" t="n">
-        <v>934.6243398969086</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X36" t="n">
-        <v>779.7569041357885</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y36" t="n">
-        <v>653.2711249150093</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.7236161035248</v>
+        <v>713.590385906296</v>
       </c>
       <c r="C37" t="n">
-        <v>210.1619045867498</v>
+        <v>541.0286743895209</v>
       </c>
       <c r="D37" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E37" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F37" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G37" t="n">
         <v>33.45485054850599</v>
@@ -7095,25 +7095,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J37" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K37" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L37" t="n">
-        <v>592.940721149037</v>
+        <v>304.3051044129576</v>
       </c>
       <c r="M37" t="n">
-        <v>861.7096435212254</v>
+        <v>718.3088799507192</v>
       </c>
       <c r="N37" t="n">
-        <v>952.0735121144792</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O37" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026243</v>
       </c>
       <c r="P37" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391306</v>
@@ -7125,22 +7125,22 @@
         <v>1672.7425274253</v>
       </c>
       <c r="T37" t="n">
-        <v>1429.437390511418</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.037253290153</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V37" t="n">
-        <v>864.0817451605831</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W37" t="n">
-        <v>864.0817451605831</v>
+        <v>1186.401811258775</v>
       </c>
       <c r="X37" t="n">
-        <v>618.6899904939955</v>
+        <v>941.0100565921878</v>
       </c>
       <c r="Y37" t="n">
-        <v>574.542234822512</v>
+        <v>713.590385906296</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>831.1903348568071</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C38" t="n">
-        <v>831.1903348568071</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D38" t="n">
-        <v>831.1903348568071</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E38" t="n">
-        <v>831.1903348568071</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F38" t="n">
-        <v>408.7806057090042</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524189</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7195,7 +7195,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R38" t="n">
         <v>1672.742527425299</v>
@@ -7207,19 +7207,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U38" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V38" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W38" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X38" t="n">
-        <v>1253.60006400461</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="Y38" t="n">
-        <v>1253.60006400461</v>
+        <v>855.9192452014109</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C39" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E39" t="n">
-        <v>236.3000591453949</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F39" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G39" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H39" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I39" t="n">
         <v>83.76937108752902</v>
@@ -7256,25 +7256,25 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>605.2485493631989</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L39" t="n">
-        <v>758.183351844203</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M39" t="n">
-        <v>936.6510528709194</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N39" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O39" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P39" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q39" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R39" t="n">
         <v>1672.742527425299</v>
@@ -7283,7 +7283,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T39" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U39" t="n">
         <v>1319.064612101715</v>
@@ -7292,13 +7292,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X39" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.2711249150088</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>382.7236161035248</v>
+        <v>852.9050322832435</v>
       </c>
       <c r="C40" t="n">
-        <v>210.1619045867498</v>
+        <v>680.3433207664684</v>
       </c>
       <c r="D40" t="n">
-        <v>210.1619045867498</v>
+        <v>514.4653279679911</v>
       </c>
       <c r="E40" t="n">
-        <v>210.1619045867498</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F40" t="n">
-        <v>33.45485054850598</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850598</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K40" t="n">
-        <v>505.1482476164479</v>
+        <v>350.8141989856838</v>
       </c>
       <c r="L40" t="n">
-        <v>769.1447895942084</v>
+        <v>438.6066725182728</v>
       </c>
       <c r="M40" t="n">
-        <v>861.7096435212252</v>
+        <v>531.1715264452896</v>
       </c>
       <c r="N40" t="n">
-        <v>952.0735121144789</v>
+        <v>621.5353950385435</v>
       </c>
       <c r="O40" t="n">
         <v>1035.539170576305</v>
@@ -7359,25 +7359,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T40" t="n">
-        <v>1672.742527425299</v>
+        <v>1331.6791591318</v>
       </c>
       <c r="U40" t="n">
-        <v>1606.335572718269</v>
+        <v>1331.6791591318</v>
       </c>
       <c r="V40" t="n">
-        <v>1319.3800645887</v>
+        <v>1044.723651002231</v>
       </c>
       <c r="W40" t="n">
-        <v>1047.353660174991</v>
+        <v>1044.723651002231</v>
       </c>
       <c r="X40" t="n">
-        <v>801.9619055084038</v>
+        <v>1044.723651002231</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.542234822512</v>
+        <v>1044.723651002231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1153.648765918023</v>
+        <v>691.0826042462761</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.648765918023</v>
+        <v>691.0826042462761</v>
       </c>
       <c r="D41" t="n">
-        <v>1153.648765918023</v>
+        <v>691.0826042462761</v>
       </c>
       <c r="E41" t="n">
-        <v>731.2390367702202</v>
+        <v>691.0826042462761</v>
       </c>
       <c r="F41" t="n">
-        <v>308.8293076224172</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G41" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H41" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524229</v>
+        <v>83.79828774524223</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K41" t="n">
         <v>362.9849282099031</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.7425274253</v>
       </c>
       <c r="S41" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T41" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1360.583196495746</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V41" t="n">
-        <v>1360.583196495746</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W41" t="n">
-        <v>1153.648765918023</v>
+        <v>691.0826042462761</v>
       </c>
       <c r="X41" t="n">
-        <v>1153.648765918023</v>
+        <v>691.0826042462761</v>
       </c>
       <c r="Y41" t="n">
-        <v>1153.648765918023</v>
+        <v>691.0826042462761</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J42" t="n">
-        <v>260.6979650056804</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K42" t="n">
-        <v>374.4359838511127</v>
+        <v>281.1551766414591</v>
       </c>
       <c r="L42" t="n">
-        <v>527.3707863321168</v>
+        <v>434.0899791224632</v>
       </c>
       <c r="M42" t="n">
-        <v>705.8384873588335</v>
+        <v>612.5576801491798</v>
       </c>
       <c r="N42" t="n">
-        <v>1119.842262896595</v>
+        <v>795.7488901748552</v>
       </c>
       <c r="O42" t="n">
-        <v>1287.426430762205</v>
+        <v>963.3330580404652</v>
       </c>
       <c r="P42" t="n">
-        <v>1421.927499955579</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q42" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R42" t="n">
         <v>1672.7425274253</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>682.2578127397973</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="C43" t="n">
-        <v>509.6961012230222</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="D43" t="n">
-        <v>509.6961012230222</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E43" t="n">
         <v>509.6961012230222</v>
@@ -7575,16 +7575,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L43" t="n">
-        <v>769.1447895942088</v>
+        <v>781.191158103878</v>
       </c>
       <c r="M43" t="n">
-        <v>861.7096435212254</v>
+        <v>873.7560120308948</v>
       </c>
       <c r="N43" t="n">
-        <v>952.0735121144792</v>
+        <v>964.1198806241487</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P43" t="n">
         <v>1449.542946114066</v>
@@ -7596,25 +7596,25 @@
         <v>1672.7425274253</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.001055161997</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T43" t="n">
-        <v>1524.001055161997</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U43" t="n">
-        <v>1245.600917940732</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="V43" t="n">
-        <v>1245.600917940732</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W43" t="n">
-        <v>973.5745135270233</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="X43" t="n">
-        <v>874.0764314587843</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.0764314587843</v>
+        <v>915.0622116959562</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1300.684037991914</v>
+        <v>429.6525087217881</v>
       </c>
       <c r="C44" t="n">
-        <v>1300.684037991914</v>
+        <v>429.6525087217881</v>
       </c>
       <c r="D44" t="n">
-        <v>878.2743088441117</v>
+        <v>429.6525087217881</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8645796963089</v>
+        <v>429.6525087217881</v>
       </c>
       <c r="F44" t="n">
         <v>33.45485054850598</v>
@@ -7645,19 +7645,19 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847202</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7675,25 +7675,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>1663.300988058088</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U44" t="n">
-        <v>1663.300988058088</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V44" t="n">
-        <v>1300.684037991914</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W44" t="n">
-        <v>1300.684037991914</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="X44" t="n">
-        <v>1300.684037991914</v>
+        <v>837.9386324221347</v>
       </c>
       <c r="Y44" t="n">
-        <v>1300.684037991914</v>
+        <v>429.6525087217881</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I45" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J45" t="n">
-        <v>474.8738748284774</v>
+        <v>124.2518767018075</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631989</v>
+        <v>237.9898955472397</v>
       </c>
       <c r="L45" t="n">
-        <v>758.183351844203</v>
+        <v>390.9246980282438</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709194</v>
+        <v>569.3923990549603</v>
       </c>
       <c r="N45" t="n">
-        <v>1119.842262896595</v>
+        <v>752.5836090806355</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.426430762205</v>
+        <v>963.3330580404648</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955578</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.893809287537</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C46" t="n">
-        <v>845.3320977707623</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D46" t="n">
-        <v>679.454104972285</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E46" t="n">
-        <v>509.6961012230222</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F46" t="n">
-        <v>332.9890471847784</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0002701804846</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I46" t="n">
         <v>33.45485054850598</v>
@@ -7809,16 +7809,16 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>505.1482476164479</v>
+        <v>230.3897930453122</v>
       </c>
       <c r="L46" t="n">
-        <v>592.940721149037</v>
+        <v>318.1822665779013</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212252</v>
+        <v>410.747120504918</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144789</v>
+        <v>621.535395038543</v>
       </c>
       <c r="O46" t="n">
         <v>1035.539170576305</v>
@@ -7833,25 +7833,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>1583.249454638372</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.249454638372</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U46" t="n">
-        <v>1304.849317417107</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.893809287537</v>
+        <v>1237.045547032426</v>
       </c>
       <c r="W46" t="n">
-        <v>1017.893809287537</v>
+        <v>1237.045547032426</v>
       </c>
       <c r="X46" t="n">
-        <v>1017.893809287537</v>
+        <v>1237.045547032426</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.893809287537</v>
+        <v>1237.045547032426</v>
       </c>
     </row>
   </sheetData>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.6222042310422724</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.375249808503935</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.4638205339662704</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,16 +9567,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.509981579681935</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.527875949017729</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5370926853729738</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M25" t="n">
-        <v>324.6857794047928</v>
+        <v>225.6336107934284</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.8319206116795</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P25" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10038,7 +10038,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>177.9839075203758</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>43.60129403456486</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.3670431532728</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10278,7 +10278,7 @@
         <v>329.5063656617904</v>
       </c>
       <c r="M31" t="n">
-        <v>194.5224767935399</v>
+        <v>194.52247679354</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>16.80470271645368</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>282.3259660044325</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>62.31542859708475</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10521,10 +10521,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>177.9839075203752</v>
+        <v>177.9839075203754</v>
       </c>
       <c r="P34" t="n">
-        <v>346.0449349349549</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>73.43689191893543</v>
       </c>
       <c r="M37" t="n">
-        <v>177.9839075203755</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>326.9089969136443</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P37" t="n">
-        <v>346.0449349349551</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>16.80470271645368</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>135.161044225888</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>121.6408140811833</v>
       </c>
       <c r="L40" t="n">
-        <v>177.9839075203752</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P40" t="n">
         <v>346.0449349349549</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>111.4973890337529</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>17.27435144824415</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>233.1440055677639</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.367043153273</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11223,7 +11223,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>177.9839075203755</v>
+        <v>190.1519565200415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P43" t="n">
-        <v>346.0449349349551</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16.80470271645368</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>43.60129403456494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11457,22 +11457,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>177.9839075203751</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>121.640814081183</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,13 +23746,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>394.4994971260158</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>400.9407135410828</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F18" t="n">
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>59.84086234716951</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>125.591226385672</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -23879,7 +23879,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>121.9583725063111</v>
       </c>
     </row>
     <row r="19">
@@ -23904,13 +23904,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>161.0569082053454</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -23958,7 +23958,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>221.8829250567725</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>214.9460500556102</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>116.8283131467052</v>
       </c>
       <c r="C21" t="n">
         <v>105.3918965517241</v>
@@ -24062,10 +24062,10 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>125.591226385672</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V21" t="n">
         <v>197.1263427586206</v>
@@ -24113,10 +24113,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X21" t="n">
-        <v>153.3187614035088</v>
+        <v>150.0562124812485</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>122.3472683378446</v>
       </c>
     </row>
     <row r="22">
@@ -24132,22 +24132,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>161.3455597797657</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>164.7978747895098</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G23" t="n">
-        <v>78.09992671243953</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>90.96234522664923</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,19 +24369,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>147.5560337856509</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>221.3829436976952</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>349.5235055914049</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>83.01447725588918</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>106.320542004114</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -24615,13 +24615,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.32288334323971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>104.0823826424473</v>
       </c>
       <c r="C29" t="n">
         <v>15.57541623208607</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56825573605698</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>103.7223099031408</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>31.8283207007352</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>15.57541623208613</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>30.1564409585892</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>272.6207125031721</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>135.3667446066042</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25083,19 +25083,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>233.2662810127212</v>
+        <v>94.34570528478093</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>3.850942923733783</v>
       </c>
       <c r="C35" t="n">
-        <v>62.18855047951746</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>11.25136553696285</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>132.1321515367614</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.1999654356588</v>
@@ -25365,22 +25365,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>71.91478441298619</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>181.4391958642641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.850942923733896</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25402,10 +25402,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>5.403123438559533</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>24.48162124115778</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>272.6207125031721</v>
@@ -25447,16 +25447,16 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>221.8104708694646</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>69.83578017384922</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>50.47340847484898</v>
       </c>
       <c r="U40" t="n">
-        <v>209.8732506890927</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>11.25136553696285</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>5.403123438559419</v>
+        <v>168.5913979841429</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>195.9418137711316</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>120.8676197458553</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>144.4347358723651</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>11.25136553696296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>5.403123438559533</v>
+        <v>31.3530737033351</v>
       </c>
       <c r="G44" t="n">
         <v>396.054118850051</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>202.6985193651053</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
         <v>256.5237009191198</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>42.77599233820635</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>58.6559154816118</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2715.301408324638</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2715.301408324622</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>342501.7355967715</v>
+        <v>342501.7355967716</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342501.7355967718</v>
+        <v>342501.7355967716</v>
       </c>
     </row>
     <row r="14">
@@ -26328,34 +26328,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>773.8268907947324</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>773.8268907947324</v>
       </c>
       <c r="I2" t="n">
         <v>97378.78047220715</v>
       </c>
       <c r="J2" t="n">
+        <v>97378.78047220712</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97378.78047220717</v>
+      </c>
+      <c r="L2" t="n">
+        <v>97378.78047220716</v>
+      </c>
+      <c r="M2" t="n">
         <v>97378.78047220713</v>
-      </c>
-      <c r="K2" t="n">
-        <v>97378.7804722071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>97378.7804722071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97378.78047220715</v>
       </c>
       <c r="N2" t="n">
         <v>97378.78047220713</v>
       </c>
       <c r="O2" t="n">
-        <v>97378.78047220716</v>
+        <v>97378.78047220713</v>
       </c>
       <c r="P2" t="n">
-        <v>97378.78047220713</v>
+        <v>97378.78047220715</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2964.145017549302</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>360192.1710449697</v>
+        <v>357320.5222705446</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>785.1356606908715</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106.4647761335763</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>106.4647761335762</v>
       </c>
       <c r="I4" t="n">
         <v>14210.98180735127</v>
@@ -26447,13 +26447,13 @@
         <v>14210.98180735126</v>
       </c>
       <c r="L4" t="n">
+        <v>14210.98180735127</v>
+      </c>
+      <c r="M4" t="n">
         <v>14210.98180735126</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>14210.98180735127</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14210.98180735126</v>
       </c>
       <c r="O4" t="n">
         <v>14210.98180735127</v>
@@ -26484,10 +26484,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="I5" t="n">
         <v>32636.50261996421</v>
@@ -26511,7 +26511,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-3888.716618392663</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-924.5716008433608</v>
       </c>
       <c r="I6" t="n">
-        <v>-309660.875000078</v>
+        <v>-307520.9771474276</v>
       </c>
       <c r="J6" t="n">
-        <v>50531.29604489166</v>
+        <v>49799.54512311692</v>
       </c>
       <c r="K6" t="n">
-        <v>50531.29604489163</v>
+        <v>49799.54512311698</v>
       </c>
       <c r="L6" t="n">
-        <v>50531.29604489164</v>
+        <v>49799.54512311694</v>
       </c>
       <c r="M6" t="n">
-        <v>50531.29604489166</v>
+        <v>49799.54512311693</v>
       </c>
       <c r="N6" t="n">
-        <v>50531.29604489167</v>
+        <v>49799.54512311692</v>
       </c>
       <c r="O6" t="n">
-        <v>50531.29604489168</v>
+        <v>49014.40946242605</v>
       </c>
       <c r="P6" t="n">
-        <v>50531.29604489167</v>
+        <v>49799.54512311696</v>
       </c>
     </row>
   </sheetData>
@@ -26752,19 +26752,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
         <v>330.7713854632872</v>
@@ -26779,7 +26779,7 @@
         <v>330.7713854632872</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I4" t="n">
         <v>418.1856318563248</v>
@@ -26819,7 +26819,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M4" t="n">
         <v>418.1856318563249</v>
@@ -26831,7 +26831,7 @@
         <v>418.1856318563249</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632871</v>
+        <v>328.1090524645469</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563248</v>
+        <v>414.9230829340646</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260333</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,13 +32715,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
@@ -32733,13 +32733,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -32809,10 +32809,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
@@ -32821,7 +32821,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H25" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
@@ -32870,25 +32870,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R25" t="n">
         <v>26.81959463117078</v>
@@ -32900,7 +32900,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,13 +32952,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
@@ -32970,13 +32970,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
@@ -33046,10 +33046,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
@@ -33058,7 +33058,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
@@ -33107,25 +33107,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
         <v>26.81959463117078</v>
@@ -33137,7 +33137,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,13 +33189,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
@@ -33207,13 +33207,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -33283,10 +33283,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
@@ -33295,7 +33295,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H31" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
@@ -33344,25 +33344,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R31" t="n">
         <v>26.81959463117078</v>
@@ -33374,7 +33374,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -34374,31 +34374,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853368</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q44" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U44" t="n">
         <v>0.1063787370334189</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I45" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P45" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S45" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H46" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I46" t="n">
-        <v>17.9375695592222</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K46" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R46" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S46" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.8193675710433224</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.933030394141655</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.7137671124819471</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9083906948817442</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.8193675710433226</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.117743147917906</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K23" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M25" t="n">
-        <v>418.1856318563248</v>
+        <v>319.1334632449605</v>
       </c>
       <c r="N25" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>215.1406665327154</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P25" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q25" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36758,13 +36758,13 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L28" t="n">
-        <v>266.6631737149102</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M28" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
         <v>84.30874592103589</v>
@@ -36776,7 +36776,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -36837,10 +36837,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N29" t="n">
         <v>237.2677999464443</v>
@@ -36852,10 +36852,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>158.4881817572237</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
         <v>154.4795984656607</v>
@@ -36925,16 +36925,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R30" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37013,7 +37013,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
@@ -37092,7 +37092,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>50.8227480192152</v>
       </c>
       <c r="J33" t="n">
-        <v>395.0550542837863</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
-        <v>131.6915904391126</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37162,13 +37162,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P33" t="n">
-        <v>135.8596658518925</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.818588703052</v>
+        <v>153.1340173001367</v>
       </c>
       <c r="R33" t="n">
         <v>162.5299238926254</v>
@@ -37241,10 +37241,10 @@
         <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>262.2926534414111</v>
+        <v>262.2926534414113</v>
       </c>
       <c r="P34" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q34" t="n">
         <v>219.8381709871103</v>
@@ -37305,16 +37305,16 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K35" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
         <v>237.2677999464443</v>
@@ -37329,7 +37329,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37405,7 +37405,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R36" t="n">
         <v>162.5299238926257</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453442</v>
+        <v>162.1161581134699</v>
       </c>
       <c r="M37" t="n">
-        <v>271.4837599719076</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103589</v>
+        <v>418.185631856325</v>
       </c>
       <c r="P37" t="n">
-        <v>418.185631856325</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q37" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R37" t="n">
         <v>5.615951549488948</v>
@@ -37548,16 +37548,16 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J39" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>131.6915904391126</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
@@ -37642,10 +37642,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.818588703052</v>
+        <v>225.97963292894</v>
       </c>
       <c r="R39" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8331089915197</v>
+        <v>190.9401305766064</v>
       </c>
       <c r="L40" t="n">
-        <v>266.6631737149096</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M40" t="n">
         <v>93.49985245153209</v>
@@ -37715,13 +37715,13 @@
         <v>91.27663494268063</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R40" t="n">
         <v>5.615951549488948</v>
@@ -37785,13 +37785,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
         <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667435</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J42" t="n">
-        <v>178.7157514324762</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K42" t="n">
-        <v>114.8868877226589</v>
+        <v>132.1612391709031</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37870,19 +37870,19 @@
         <v>180.2704050774915</v>
       </c>
       <c r="N42" t="n">
-        <v>418.1856318563249</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.818588703052</v>
+        <v>418.185631856325</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L43" t="n">
-        <v>266.6631737149099</v>
+        <v>278.8312227145759</v>
       </c>
       <c r="M43" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="P43" t="n">
-        <v>418.185631856325</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q43" t="n">
         <v>219.8381709871103</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
         <v>169.1471783864346</v>
@@ -38025,10 +38025,10 @@
         <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139913</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464443</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667435</v>
@@ -38040,7 +38040,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.8227480192152</v>
+        <v>24.49580543289437</v>
       </c>
       <c r="J45" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391126</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M45" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885609</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>212.8782312725549</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518925</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R45" t="n">
         <v>162.5299238926254</v>
@@ -38177,28 +38177,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542306</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453442</v>
+        <v>88.67926619453436</v>
       </c>
       <c r="M46" t="n">
-        <v>271.4837599719073</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268063</v>
+        <v>212.9174490238636</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P46" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
